--- a/content/posts/05_2022_yks_puan hesaplama/SoruSayilari.xlsx
+++ b/content/posts/05_2022_yks_puan hesaplama/SoruSayilari.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRSA\D3\content\posts\05_2022_yks_puan hesaplama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BCD1274-598E-4D93-89F7-B735E254C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FB472-46EC-476E-8465-9E7DFBA8A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{8D94EF7F-F213-46A6-8B4E-CE662BC08B8C}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
